--- a/Driver_WEBGATEWAY.xlsx
+++ b/Driver_WEBGATEWAY.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="825" windowWidth="14355" windowHeight="4155" tabRatio="865" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="825" windowWidth="14355" windowHeight="4155" tabRatio="865" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Automation Framework Config" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="140">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -124,9 +124,6 @@
     <t>AccountManager</t>
   </si>
   <si>
-    <t>https://qa-gateway-lb-1580561850.us-west-1.elb.amazonaws.com/login</t>
-  </si>
-  <si>
     <t>AccountManager - Add User</t>
   </si>
   <si>
@@ -437,6 +434,15 @@
   </si>
   <si>
     <t>https://portal-nv.edgepay-uat.com/login</t>
+  </si>
+  <si>
+    <t>HTMLUNIT</t>
+  </si>
+  <si>
+    <t>CHROMEHEADLESS</t>
+  </si>
+  <si>
+    <t>https://portal.edgepayment.me/login</t>
   </si>
 </sst>
 </file>
@@ -508,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -557,12 +563,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,6 +604,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -941,10 +961,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1029,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1064,7 @@
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1060,65 +1080,89 @@
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="B5" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>133</v>
-      </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1126,12 +1170,18 @@
         <v>6</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:G5">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1143,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1181,7 +1231,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1204,23 +1254,23 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1292,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>5</v>
@@ -1314,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>5</v>
@@ -1325,7 +1375,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>6</v>
@@ -1336,7 +1386,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>5</v>
@@ -1405,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,7 +1470,7 @@
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1436,150 +1486,204 @@
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1587,12 +1691,18 @@
         <v>6</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:G10">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1603,10 +1713,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,7 +1728,7 @@
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1634,115 +1744,157 @@
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="B8" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -1751,12 +1903,18 @@
         <v>6</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:G8">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1767,10 +1925,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,7 +1940,7 @@
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1798,252 +1956,342 @@
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B4" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B5" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B6" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B7" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="C15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B16" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2051,12 +2299,18 @@
         <v>6</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:G16">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2067,10 +2321,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2082,7 +2336,7 @@
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2098,183 +2352,249 @@
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="B12" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>6</v>
@@ -2283,12 +2603,18 @@
         <v>6</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:G12">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2299,10 +2625,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,7 +2640,7 @@
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2330,132 +2656,180 @@
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="B9" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
@@ -2464,12 +2838,18 @@
         <v>6</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:G9">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2483,7 +2863,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2514,10 +2894,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -2526,15 +2906,15 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -2548,10 +2928,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -2560,15 +2940,15 @@
         <v>6</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -2577,15 +2957,15 @@
         <v>6</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -2594,7 +2974,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
